--- a/gabung.xlsx
+++ b/gabung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@SURFER-GIRL\GS x MOM\Gabung code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C67805-07CA-4F80-9603-61AEF2B8ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AB3561-8560-4676-8A3F-9B3808282561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>original_id</t>
   </si>
@@ -33,16 +33,55 @@
     <t>replace_with</t>
   </si>
   <si>
-    <t>9bad3bcf-d203-4ce3-ae23-7d8f4bd6645f</t>
-  </si>
-  <si>
-    <t>9b46f122-780b-4438-8264-0980c8dd6e58</t>
-  </si>
-  <si>
-    <t>9c568f3c-5e23-4a43-bf3b-bf624d537261</t>
-  </si>
-  <si>
-    <t>656784a6-e77f-492b-8c56-b150f2a44424</t>
+    <t>f9f2e321-bc03-4c99-a096-763cfabac523</t>
+  </si>
+  <si>
+    <t>8ccf5f5e-e54f-43a8-af3f-cd2f367e417d</t>
+  </si>
+  <si>
+    <t>b98d6333-5247-4e2b-b254-f55749f45ec9</t>
+  </si>
+  <si>
+    <t>de868878-a260-46fe-8c9b-8997538a3c20</t>
+  </si>
+  <si>
+    <t>2fca9c78-69ab-4207-beac-e1d0a575e287</t>
+  </si>
+  <si>
+    <t>0301e877-1470-40f2-adc6-43d199dec84c</t>
+  </si>
+  <si>
+    <t>cf8ff97e-6db5-4f45-8775-3bf1f29e411c</t>
+  </si>
+  <si>
+    <t>9c6a4d85-347d-44c3-95d0-ab3211db2fd4</t>
+  </si>
+  <si>
+    <t>b6010b52-4672-4fe0-86dc-5cb488d6b383</t>
+  </si>
+  <si>
+    <t>5598d097-021d-4c04-a466-01370403ebe9</t>
+  </si>
+  <si>
+    <t>9bad9dca-5e02-4bd2-9fbc-1c268474d70c</t>
+  </si>
+  <si>
+    <t>81a3cd60-939e-4306-962b-231012fdda70</t>
+  </si>
+  <si>
+    <t>9bada080-fb4e-4b02-8f32-b1193fac3d5c</t>
+  </si>
+  <si>
+    <t>c89d8952-34ba-4ebb-97dd-28708adf755d</t>
+  </si>
+  <si>
+    <t>9bad9dcc-88c4-49e8-80bb-8ba040b1d89b</t>
+  </si>
+  <si>
+    <t>ea41f487-7fd5-4d00-bf20-9f72eb9056dd</t>
+  </si>
+  <si>
+    <t>9bad9dcc-8e9e-406b-92db-ff709bba068f</t>
   </si>
 </sst>
 </file>
@@ -297,7 +336,7 @@
   <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -317,10 +356,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -332,32 +371,60 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
